--- a/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,17 +611,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-14,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,13; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,27; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,13; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,27; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-9,06</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,31</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,02; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,17; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,31%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,02; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,17; 0,0</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 4,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 5,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 8,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 5,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 5,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 8,7</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 2,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 2,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 2,83</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 2,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 2,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 0,0</t>
+          <t>-15,54; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,32%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-5,28%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 0,0</t>
+          <t>-15,54; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 0,0</t>
+          <t>0,0; 14,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 0,0</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 0,0</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 0,0</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,32</t>
+          <t>-11,13; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,44</t>
+          <t>-10,87; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,71</t>
+          <t>-11,13; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,21</t>
+          <t>-10,87; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,0</t>
+          <t>-3,22; 4,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 0,0</t>
+          <t>-2,61; 5,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 8,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,0</t>
+          <t>-3,23; 5,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 0,0</t>
+          <t>-2,63; 5,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 8,7</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,86</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,48</t>
+          <t>0,83; 7,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,87</t>
+          <t>-2,59; 2,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,7</t>
+          <t>-4,72; 2,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,62</t>
+          <t>-1,19; 3,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,0</t>
+          <t>-2,54; 2,83</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,85</t>
+          <t>0,84; 8,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,73</t>
+          <t>0,84; 8,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,13</t>
+          <t>-2,61; 2,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,74</t>
+          <t>-4,75; 2,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,96</t>
+          <t>-1,21; 3,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,7</t>
+          <t>-2,57; 2,92</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 7,9</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 7,79</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 2,35</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 2,24</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 3,15</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 2,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 8,58</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 8,44</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 2,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 2,29</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 3,26</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 2,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Habitat-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 0,0</t>
+          <t>-17,71; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 0,0</t>
+          <t>-31,88; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,0</t>
+          <t>-13,08; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 0,0</t>
+          <t>-24,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 0,0</t>
+          <t>-17,71; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 0,0</t>
+          <t>-31,88; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,0</t>
+          <t>-13,08; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 0,0</t>
+          <t>-24,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,7</t>
+          <t>0,0; 19,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,39</t>
+          <t>0,0; 20,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,32</t>
+          <t>0,0; 14,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,18</t>
+          <t>0,0; 14,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,44</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>0,0; 10,83</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,72</t>
+          <t>0,0; 23,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,05</t>
+          <t>0,0; 26,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,71</t>
+          <t>0,0; 16,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,52</t>
+          <t>0,0; 17,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,21</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 12,15</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,0</t>
+          <t>-13,97; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 0,0</t>
+          <t>-9,71; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,0</t>
+          <t>-13,97; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 0,0</t>
+          <t>-9,71; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,86</t>
+          <t>0,0; 16,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,48</t>
+          <t>0,0; 16,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,87</t>
+          <t>-3,17; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,7</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,62</t>
+          <t>-2,55; 5,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,0</t>
+          <t>0,9; 9,24</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,85</t>
+          <t>0,0; 19,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,73</t>
+          <t>0,0; 19,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,13</t>
+          <t>-3,17; 5,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,74</t>
+          <t>0,0; 7,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,96</t>
+          <t>-2,55; 5,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,7</t>
+          <t>0,91; 10,18</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,86; 7,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,79</t>
+          <t>0,86; 7,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,35</t>
+          <t>-2,57; 2,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,24</t>
+          <t>-5,73; 2,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>-1,24; 3,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,83</t>
+          <t>-2,28; 3,04</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,58</t>
+          <t>0,86; 8,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,44</t>
+          <t>0,87; 8,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,43</t>
+          <t>-2,59; 2,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,29</t>
+          <t>-5,83; 2,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,26</t>
+          <t>-1,24; 3,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,92</t>
+          <t>-2,26; 3,13</t>
         </is>
       </c>
     </row>
